--- a/Data/City Bus Undertakings.xlsx
+++ b/Data/City Bus Undertakings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\Mobility\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniru\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DBDCE-025D-4FFF-8009-1600A766DCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876FC16-0FF0-4ED7-98A0-F4EDC870DE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>City</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Transport Corporation</t>
   </si>
   <si>
-    <t>No. of Buses (by the transport corporation)</t>
-  </si>
-  <si>
     <t>Average cost per km in rupees (daily)</t>
   </si>
   <si>
@@ -116,27 +113,12 @@
     <t>Mode Share of Bus Travel (%)</t>
   </si>
   <si>
-    <t>Profit/Loss for the year</t>
-  </si>
-  <si>
-    <t>Total Operating Expenses</t>
-  </si>
-  <si>
-    <t>Average Buses on Road per day</t>
-  </si>
-  <si>
     <t>Number of Bus Stops</t>
   </si>
   <si>
-    <t>Fleet size / Utilisation</t>
-  </si>
-  <si>
     <t>Average Daily Ridership</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>AMTS</t>
   </si>
   <si>
@@ -156,6 +138,24 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Fleet size</t>
+  </si>
+  <si>
+    <t>Fleet Utilisation (%)</t>
+  </si>
+  <si>
+    <t>Gross Revenue (in Lakhs)</t>
+  </si>
+  <si>
+    <t>Total Cost of Operations (in Lakhs)</t>
+  </si>
+  <si>
+    <t>Fleet</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -305,22 +305,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -350,9 +339,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,9 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,6 +369,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,286 +664,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="26" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="24">
+        <v>8443675</v>
+      </c>
+      <c r="C3" s="24">
+        <v>41.91</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>6407</v>
+      </c>
+      <c r="G3">
+        <v>90.9</v>
+      </c>
+      <c r="H3">
+        <v>5074000</v>
+      </c>
+      <c r="I3">
+        <v>163.59773623333334</v>
+      </c>
+      <c r="J3">
+        <v>143.03530493333335</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>8443675</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="M3">
+        <v>127.3</v>
+      </c>
+      <c r="N3">
+        <v>35554</v>
+      </c>
+      <c r="O3">
+        <v>219375</v>
+      </c>
+      <c r="P3" s="8">
+        <v>220748</v>
+      </c>
+      <c r="Q3">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>6165</v>
+      </c>
+      <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>4534000</v>
+      </c>
+      <c r="I4">
+        <v>187.62597103333334</v>
+      </c>
+      <c r="J4">
+        <v>140.33985699999999</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="8">
+        <v>127.3</v>
+      </c>
+      <c r="N4">
+        <v>34306</v>
+      </c>
+      <c r="O4">
+        <v>236701</v>
+      </c>
+      <c r="P4" s="8">
+        <v>210610</v>
+      </c>
+      <c r="Q4">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>6677</v>
+      </c>
+      <c r="G5">
+        <v>87.5</v>
+      </c>
+      <c r="H5">
+        <v>4437000</v>
+      </c>
+      <c r="I5">
+        <v>195.66913913333335</v>
+      </c>
+      <c r="J5">
+        <v>141.24891243333335</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="8">
+        <v>127.3</v>
+      </c>
+      <c r="N5">
+        <v>34114</v>
+      </c>
+      <c r="O5">
+        <v>244461</v>
+      </c>
+      <c r="P5" s="8">
+        <v>222699</v>
+      </c>
+      <c r="Q5">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="25">
+        <v>3124458</v>
+      </c>
+      <c r="C6" s="25">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H6">
+        <v>1124328</v>
+      </c>
+      <c r="I6">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="J6">
+        <v>67.77</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="13">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="13">
-        <v>41.91</v>
-      </c>
-      <c r="F3">
-        <v>6674</v>
-      </c>
-      <c r="H3">
-        <v>2212</v>
-      </c>
-      <c r="I3">
-        <v>5074000</v>
-      </c>
-      <c r="J3">
-        <v>163.59773623333334</v>
-      </c>
-      <c r="K3">
-        <v>143.03530493333335</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3">
-        <v>127.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8">
-        <v>8443675</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13">
-        <v>41.91</v>
-      </c>
-      <c r="F4">
-        <v>6394</v>
-      </c>
-      <c r="G4">
-        <v>5579</v>
-      </c>
-      <c r="H4">
-        <v>2212</v>
-      </c>
-      <c r="I4">
-        <v>4534000</v>
-      </c>
-      <c r="J4">
-        <v>187.62597103333334</v>
-      </c>
-      <c r="K4">
-        <v>140.33985699999999</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="8">
-        <v>127.3</v>
-      </c>
-      <c r="O4">
-        <v>34306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8">
-        <v>8443675</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13">
-        <v>41.91</v>
-      </c>
-      <c r="F5">
-        <v>6269</v>
-      </c>
-      <c r="G5">
-        <v>5597</v>
-      </c>
-      <c r="H5">
-        <v>2212</v>
-      </c>
-      <c r="I5">
-        <v>4437000</v>
-      </c>
-      <c r="J5">
-        <v>195.66913913333335</v>
-      </c>
-      <c r="K5">
-        <v>141.24891243333335</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="8">
-        <v>127.3</v>
-      </c>
-      <c r="O5">
-        <v>34114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>3124458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13">
-        <v>20.41</v>
-      </c>
-      <c r="H6">
-        <v>2392</v>
-      </c>
-      <c r="I6">
-        <v>1124328</v>
-      </c>
-      <c r="J6">
-        <v>81.010000000000005</v>
-      </c>
-      <c r="K6">
-        <v>67.77</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="14">
-        <v>138.55000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3124458</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13">
-        <v>19.14</v>
       </c>
       <c r="F7">
         <v>2045</v>
@@ -957,451 +955,419 @@
         <v>1382</v>
       </c>
       <c r="H7">
+        <v>1079223</v>
+      </c>
+      <c r="I7">
+        <v>85.19</v>
+      </c>
+      <c r="J7">
+        <v>65.94</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="13">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="Q7">
         <v>2392</v>
       </c>
-      <c r="I7">
-        <v>1079223</v>
-      </c>
-      <c r="J7">
-        <v>85.19</v>
-      </c>
-      <c r="K7">
-        <v>65.94</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="14">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>1089208</v>
+      </c>
+      <c r="I8">
+        <v>76.98</v>
+      </c>
+      <c r="J8">
+        <v>58.73</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="13">
         <v>138.55000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3124458</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="13">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="H8">
+      <c r="Q8">
         <v>2392</v>
       </c>
-      <c r="I8">
-        <v>1089208</v>
-      </c>
-      <c r="J8">
-        <v>76.98</v>
-      </c>
-      <c r="K8">
-        <v>58.73</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="14">
-        <v>138.55000000000001</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="25">
         <v>5570585</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="C9" s="25">
         <v>52</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="8">
         <v>1060</v>
       </c>
-      <c r="H9">
+      <c r="K9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="13">
+        <v>118.18</v>
+      </c>
+      <c r="Q9">
         <v>1157</v>
       </c>
-      <c r="N9" s="14">
-        <v>118.18</v>
-      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8">
-        <v>5570585</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="13">
-        <v>52</v>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="8">
         <v>999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="K10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="13">
+        <v>118.18</v>
+      </c>
+      <c r="Q10" s="8">
         <v>1157</v>
       </c>
-      <c r="N10" s="14">
-        <v>118.18</v>
-      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>5570585</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="13">
-        <v>52</v>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="8">
         <v>940</v>
       </c>
-      <c r="H11" s="8">
+      <c r="K11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="13">
+        <v>118.18</v>
+      </c>
+      <c r="Q11" s="8">
         <v>1157</v>
       </c>
-      <c r="N11" s="14">
-        <v>118.18</v>
-      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8">
-        <v>9930000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="A12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="25">
+        <v>4646732</v>
+      </c>
+      <c r="C12" s="25">
         <v>31.75</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="8">
         <v>3685</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
+        <v>4200000</v>
+      </c>
+      <c r="I12" s="12">
+        <v>51.04</v>
+      </c>
+      <c r="J12" s="12">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>111.54</v>
+      </c>
+      <c r="Q12">
         <v>2415</v>
       </c>
-      <c r="I12" s="8">
-        <v>4200000</v>
-      </c>
-      <c r="J12" s="12">
-        <v>51.04</v>
-      </c>
-      <c r="K12" s="12">
-        <v>36.909999999999997</v>
-      </c>
-      <c r="N12">
-        <v>111.54</v>
-      </c>
     </row>
     <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8">
-        <v>10189000</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13">
-        <v>31.75</v>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="8">
         <v>3688</v>
       </c>
       <c r="H13" s="8">
+        <v>4200000</v>
+      </c>
+      <c r="I13" s="12">
+        <v>54.97</v>
+      </c>
+      <c r="J13" s="12">
+        <v>40.06</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="8">
+        <v>111.54</v>
+      </c>
+      <c r="Q13" s="8">
         <v>2415</v>
       </c>
-      <c r="I13" s="8">
-        <v>4200000</v>
-      </c>
-      <c r="J13" s="12">
-        <v>54.97</v>
-      </c>
-      <c r="K13" s="12">
-        <v>40.06</v>
-      </c>
-      <c r="N13" s="8">
-        <v>111.54</v>
-      </c>
     </row>
     <row r="14" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8">
-        <v>10456000</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="13">
-        <v>31.9</v>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="8">
         <v>3439</v>
       </c>
       <c r="H14" s="8">
+        <v>4200000</v>
+      </c>
+      <c r="I14" s="12">
+        <v>65.95</v>
+      </c>
+      <c r="J14" s="12">
+        <v>43.28</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="8">
+        <v>111.54</v>
+      </c>
+      <c r="Q14" s="8">
         <v>2415</v>
       </c>
-      <c r="I14" s="8">
-        <v>4200000</v>
-      </c>
-      <c r="J14" s="12">
-        <v>65.95</v>
-      </c>
-      <c r="K14" s="12">
-        <v>43.28</v>
-      </c>
-      <c r="N14" s="8">
-        <v>111.54</v>
-      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="25">
+        <v>12442373</v>
+      </c>
+      <c r="C15" s="25">
+        <v>26.3</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="N15">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="8">
+        <v>138.55000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="8">
+        <v>138.55000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>12442373</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B18" s="25">
+        <v>11034555</v>
+      </c>
+      <c r="C18" s="25">
+        <v>48.2</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="E15" s="13">
-        <v>26.3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15">
-        <v>138.55000000000001</v>
-      </c>
-      <c r="O15">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="8">
-        <v>12442373</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="13">
-        <v>26.3</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="8">
-        <v>138.55000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8">
-        <v>12442373</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="13">
-        <v>26.3</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="8">
-        <v>138.55000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>11007835</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="13">
-        <v>48.2</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="8">
-        <v>11007835</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="13">
-        <v>48.2</v>
       </c>
       <c r="F19">
         <v>3974</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="8">
-        <v>11007835</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="13">
-        <v>48.2</v>
+      <c r="K19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="8">
         <v>3897</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
+      <c r="K20" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25">
         <v>6731790</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="25">
+        <v>35</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="8">
+        <v>125.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="13">
-        <v>35</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="K22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="8">
         <v>125.03</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8">
-        <v>6731790</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="8" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="13">
-        <v>35</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="8">
         <v>125.03</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="8">
-        <v>6731790</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="13">
-        <v>35</v>
-      </c>
-      <c r="N23" s="8">
-        <v>125.03</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
+  <mergeCells count="38">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
